--- a/sensors.xlsx
+++ b/sensors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyma9\OneDrive\Plocha\Bakalařka\Temperature-controller-with-ESP8266\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8844044C-0541-4382-9C9D-A5983A0D5628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A827F9-1662-460D-A4DD-B1E8E0109F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25335" yWindow="210" windowWidth="25470" windowHeight="15570" activeTab="1" xr2:uid="{1F174FBA-3BD5-41B5-8E53-D9199DA80102}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{1F174FBA-3BD5-41B5-8E53-D9199DA80102}"/>
   </bookViews>
   <sheets>
     <sheet name="PT100" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,7 +218,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -257,37 +257,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -304,12 +274,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="plus"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -334,8 +302,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10496325459317585"/>
-                  <c:y val="8.6394721493146684E-2"/>
+                  <c:x val="-0.20673293963254594"/>
+                  <c:y val="8.5092228054826483E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -774,6 +742,7 @@
         <c:axId val="558929216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -791,6 +760,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Rs [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -829,7 +857,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="554015072"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-0.60000000000000009"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -853,6 +881,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>out</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -891,7 +995,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="558929216"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-0.60000000000000009"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -977,12 +1081,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="plus"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -1414,6 +1516,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="-25000"/>
+                  <a:t>out</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>/U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="-25000"/>
+                  <a:t>ref</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" baseline="-25000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1452,13 +1630,14 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="277699056"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-0.2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="277699056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1476,6 +1655,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Rs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" baseline="0"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1514,7 +1765,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="597466208"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-0.2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3520,6 +3771,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Odpor čidla [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3583,6 +3893,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Teplota [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4481,6 +4848,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Teplota [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4543,6 +4965,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Odpor čidla [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4954,6 +5435,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Odpor čidla [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5016,6 +5556,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Teplota [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9005,16 +9600,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9042,15 +9637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9075,6 +9670,300 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1167050" cy="344582"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextovéPole 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF12B76-10D3-425E-A14D-FD57991836F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5151120" y="2084070"/>
+              <a:ext cx="1167050" cy="344582"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="cs-CZ" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑈</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑈</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="cs-CZ" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextovéPole 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF12B76-10D3-425E-A14D-FD57991836F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5151120" y="2084070"/>
+              <a:ext cx="1167050" cy="344582"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="cs-CZ" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0=  𝑅_2/𝑅_1  (𝑈_2−𝑈_1 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="cs-CZ" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9195,16 +10084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9568,7 +10457,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9660,7 +10549,7 @@
         <v>5.7265314656073596E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="2">$Q$2/$Q$1*(B3-C3)</f>
+        <f t="shared" ref="D3:D7" si="2">$Q$2/$Q$1*(B3-C3)</f>
         <v>-0.13565089668872293</v>
       </c>
       <c r="E3">
@@ -11670,7 +12559,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12144,7 +13033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE596968-186D-4075-89AB-FB10B8F7052B}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -12623,7 +13512,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
